--- a/dataanalysis/data/predictions/1600/09241501_1515.xlsx
+++ b/dataanalysis/data/predictions/1600/09241501_1515.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="173">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-24</t>
   </si>
   <si>
@@ -530,12 +533,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -893,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,19 +999,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>3.88</v>
@@ -1032,7 +1032,7 @@
         <v>313411.02</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1074,10 +1074,25 @@
         <v>0.62</v>
       </c>
       <c r="X2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y2">
+        <v>-2.93</v>
+      </c>
+      <c r="Z2">
+        <v>67.33</v>
+      </c>
+      <c r="AA2">
+        <v>0.18</v>
       </c>
       <c r="AC2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1085,22 +1100,25 @@
       <c r="AG2">
         <v>4.806646347045898</v>
       </c>
-      <c r="AH2" t="s">
-        <v>172</v>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>3.43</v>
@@ -1118,7 +1136,7 @@
         <v>739522.41</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -1160,10 +1178,25 @@
         <v>0.29</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y3">
+        <v>6.47</v>
+      </c>
+      <c r="Z3">
+        <v>83.88</v>
+      </c>
+      <c r="AA3">
+        <v>9.880000000000001</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1171,22 +1204,25 @@
       <c r="AG3">
         <v>2.304828882217407</v>
       </c>
-      <c r="AH3" t="s">
-        <v>173</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300035</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>3.68</v>
@@ -1204,7 +1240,7 @@
         <v>204736.49</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>19</v>
@@ -1246,10 +1282,25 @@
         <v>0.49</v>
       </c>
       <c r="X4" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y4">
+        <v>-3.8</v>
+      </c>
+      <c r="Z4">
+        <v>23.85</v>
+      </c>
+      <c r="AA4">
+        <v>-0.33</v>
       </c>
       <c r="AC4" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1257,22 +1308,25 @@
       <c r="AG4">
         <v>0.9008419513702393</v>
       </c>
-      <c r="AH4" t="s">
-        <v>173</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300092</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>4.29</v>
@@ -1290,7 +1344,7 @@
         <v>97117.42999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1332,10 +1386,25 @@
         <v>-0.02</v>
       </c>
       <c r="X5" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y5">
+        <v>-6.53</v>
+      </c>
+      <c r="Z5">
+        <v>19.39</v>
+      </c>
+      <c r="AA5">
+        <v>-0.31</v>
       </c>
       <c r="AC5" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1343,22 +1412,25 @@
       <c r="AG5">
         <v>5.345746517181396</v>
       </c>
-      <c r="AH5" t="s">
-        <v>173</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300111</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>20.03</v>
@@ -1376,7 +1448,7 @@
         <v>240032.64</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -1418,10 +1490,25 @@
         <v>2.85</v>
       </c>
       <c r="X6" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y6">
+        <v>5.02</v>
+      </c>
+      <c r="Z6">
+        <v>10.28</v>
+      </c>
+      <c r="AA6">
+        <v>19.95</v>
       </c>
       <c r="AC6" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1429,22 +1516,25 @@
       <c r="AG6">
         <v>6.739883422851562</v>
       </c>
-      <c r="AH6" t="s">
-        <v>172</v>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300115</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>8.93</v>
@@ -1462,7 +1552,7 @@
         <v>934370.71</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1504,10 +1594,25 @@
         <v>0.61</v>
       </c>
       <c r="X7" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y7">
+        <v>-0.86</v>
+      </c>
+      <c r="Z7">
+        <v>43.51</v>
+      </c>
+      <c r="AA7">
+        <v>9.460000000000001</v>
       </c>
       <c r="AC7" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1515,22 +1620,25 @@
       <c r="AG7">
         <v>9.279091835021973</v>
       </c>
-      <c r="AH7" t="s">
-        <v>173</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300139</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.47</v>
@@ -1548,7 +1656,7 @@
         <v>187737.92</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -1590,10 +1698,25 @@
         <v>-1.73</v>
       </c>
       <c r="X8" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y8">
+        <v>-3.99</v>
+      </c>
+      <c r="Z8">
+        <v>27.3</v>
+      </c>
+      <c r="AA8">
+        <v>-1.87</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1601,22 +1724,25 @@
       <c r="AG8">
         <v>36.14568710327148</v>
       </c>
-      <c r="AH8" t="s">
-        <v>173</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300207</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.43</v>
@@ -1634,7 +1760,7 @@
         <v>453154.97</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1676,10 +1802,25 @@
         <v>0.28</v>
       </c>
       <c r="X9" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y9">
+        <v>1.21</v>
+      </c>
+      <c r="Z9">
+        <v>34.48</v>
+      </c>
+      <c r="AA9">
+        <v>4.01</v>
       </c>
       <c r="AC9" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1687,22 +1828,25 @@
       <c r="AG9">
         <v>1.479921460151672</v>
       </c>
-      <c r="AH9" t="s">
-        <v>173</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300223</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.32</v>
@@ -1720,7 +1864,7 @@
         <v>440462.39</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1762,10 +1906,25 @@
         <v>0.58</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y10">
+        <v>-2.07</v>
+      </c>
+      <c r="Z10">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1.27</v>
       </c>
       <c r="AC10" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1773,22 +1932,25 @@
       <c r="AG10">
         <v>-3.829542398452759</v>
       </c>
-      <c r="AH10" t="s">
-        <v>173</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300236</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>9.710000000000001</v>
@@ -1806,7 +1968,7 @@
         <v>233012.79</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1848,10 +2010,25 @@
         <v>-0.06</v>
       </c>
       <c r="X11" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y11">
+        <v>3.24</v>
+      </c>
+      <c r="Z11">
+        <v>67.13</v>
+      </c>
+      <c r="AA11">
+        <v>5.17</v>
       </c>
       <c r="AC11" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1859,22 +2036,25 @@
       <c r="AG11">
         <v>10.69258975982666</v>
       </c>
-      <c r="AH11" t="s">
-        <v>173</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300250</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.75</v>
@@ -1892,7 +2072,7 @@
         <v>216503.42</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1934,10 +2114,25 @@
         <v>1.21</v>
       </c>
       <c r="X12" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y12">
+        <v>-8.41</v>
+      </c>
+      <c r="Z12">
+        <v>26.3</v>
+      </c>
+      <c r="AA12">
+        <v>-1.68</v>
       </c>
       <c r="AC12" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1945,22 +2140,25 @@
       <c r="AG12">
         <v>0.7764565348625183</v>
       </c>
-      <c r="AH12" t="s">
-        <v>173</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300260</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-1.83</v>
@@ -1978,7 +2176,7 @@
         <v>297323.85</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2020,10 +2218,25 @@
         <v>-1.41</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y13">
+        <v>-2.87</v>
+      </c>
+      <c r="Z13">
+        <v>43.68</v>
+      </c>
+      <c r="AA13">
+        <v>0.25</v>
       </c>
       <c r="AC13" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2031,22 +2244,25 @@
       <c r="AG13">
         <v>6.009909629821777</v>
       </c>
-      <c r="AH13" t="s">
-        <v>173</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300274</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>7.43</v>
@@ -2064,7 +2280,7 @@
         <v>1803866.32</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>16</v>
@@ -2106,10 +2322,25 @@
         <v>0.57</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y14">
+        <v>3.66</v>
+      </c>
+      <c r="Z14">
+        <v>163.25</v>
+      </c>
+      <c r="AA14">
+        <v>5.87</v>
       </c>
       <c r="AC14" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2117,22 +2348,25 @@
       <c r="AG14">
         <v>5.228158473968506</v>
       </c>
-      <c r="AH14" t="s">
-        <v>173</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300350</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.1</v>
@@ -2150,7 +2384,7 @@
         <v>67231.45</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2192,10 +2426,25 @@
         <v>-1.95</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y15">
+        <v>-5.59</v>
+      </c>
+      <c r="Z15">
+        <v>7.06</v>
+      </c>
+      <c r="AA15">
+        <v>-1.4</v>
       </c>
       <c r="AC15" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2203,22 +2452,25 @@
       <c r="AG15">
         <v>1.955869436264038</v>
       </c>
-      <c r="AH15" t="s">
-        <v>173</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300398</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.54</v>
@@ -2236,7 +2488,7 @@
         <v>306863.21</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2278,10 +2530,25 @@
         <v>0.67</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y16">
+        <v>1.31</v>
+      </c>
+      <c r="Z16">
+        <v>27.3</v>
+      </c>
+      <c r="AA16">
+        <v>2.29</v>
       </c>
       <c r="AC16" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2289,22 +2556,25 @@
       <c r="AG16">
         <v>4.514506340026855</v>
       </c>
-      <c r="AH16" t="s">
-        <v>173</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300418</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.7</v>
@@ -2322,7 +2592,7 @@
         <v>610836.74</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2364,10 +2634,25 @@
         <v>0.77</v>
       </c>
       <c r="X17" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y17">
+        <v>7.4</v>
+      </c>
+      <c r="Z17">
+        <v>54</v>
+      </c>
+      <c r="AA17">
+        <v>18.92</v>
       </c>
       <c r="AC17" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2375,22 +2660,25 @@
       <c r="AG17">
         <v>-27.51168441772461</v>
       </c>
-      <c r="AH17" t="s">
-        <v>173</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300433</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.83</v>
@@ -2408,7 +2696,7 @@
         <v>395695.1</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2450,10 +2738,25 @@
         <v>0.26</v>
       </c>
       <c r="X18" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y18">
+        <v>0.9</v>
+      </c>
+      <c r="Z18">
+        <v>34.95</v>
+      </c>
+      <c r="AA18">
+        <v>4.89</v>
       </c>
       <c r="AC18" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2461,22 +2764,25 @@
       <c r="AG18">
         <v>-8.766213417053223</v>
       </c>
-      <c r="AH18" t="s">
-        <v>173</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300435</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.15</v>
@@ -2494,7 +2800,7 @@
         <v>70074.95</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2535,8 +2841,23 @@
       <c r="W19">
         <v>0.37</v>
       </c>
+      <c r="Y19">
+        <v>-1.83</v>
+      </c>
+      <c r="Z19">
+        <v>21.86</v>
+      </c>
+      <c r="AA19">
+        <v>0.05</v>
+      </c>
       <c r="AC19" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2544,22 +2865,25 @@
       <c r="AG19">
         <v>2.452760696411133</v>
       </c>
-      <c r="AH19" t="s">
-        <v>173</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300450</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>7.27</v>
@@ -2577,7 +2901,7 @@
         <v>1298881.13</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20">
         <v>19</v>
@@ -2619,10 +2943,25 @@
         <v>-0.18</v>
       </c>
       <c r="X20" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y20">
+        <v>-4.17</v>
+      </c>
+      <c r="Z20">
+        <v>69.72</v>
+      </c>
+      <c r="AA20">
+        <v>2.68</v>
       </c>
       <c r="AC20" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2630,22 +2969,25 @@
       <c r="AG20">
         <v>-11.16220664978027</v>
       </c>
-      <c r="AH20" t="s">
-        <v>173</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300457</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.57</v>
@@ -2663,7 +3005,7 @@
         <v>198506.71</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2705,10 +3047,25 @@
         <v>-0.34</v>
       </c>
       <c r="X21" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y21">
+        <v>-1.47</v>
+      </c>
+      <c r="Z21">
+        <v>35.86</v>
+      </c>
+      <c r="AA21">
+        <v>1.24</v>
       </c>
       <c r="AC21" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2716,22 +3073,25 @@
       <c r="AG21">
         <v>2.068055391311646</v>
       </c>
-      <c r="AH21" t="s">
-        <v>173</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300458</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.25</v>
@@ -2749,7 +3109,7 @@
         <v>366735.59</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2791,10 +3151,25 @@
         <v>0.48</v>
       </c>
       <c r="X22" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y22">
+        <v>0.75</v>
+      </c>
+      <c r="Z22">
+        <v>52.99</v>
+      </c>
+      <c r="AA22">
+        <v>2.4</v>
       </c>
       <c r="AC22" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2802,22 +3177,25 @@
       <c r="AG22">
         <v>2.646662712097168</v>
       </c>
-      <c r="AH22" t="s">
-        <v>173</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300475</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1.98</v>
@@ -2835,7 +3213,7 @@
         <v>404540.85</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23">
         <v>14</v>
@@ -2877,10 +3255,25 @@
         <v>0.5</v>
       </c>
       <c r="X23" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y23">
+        <v>-5.2</v>
+      </c>
+      <c r="Z23">
+        <v>83.12</v>
+      </c>
+      <c r="AA23">
+        <v>-2.21</v>
       </c>
       <c r="AC23" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2888,22 +3281,25 @@
       <c r="AG23">
         <v>3.314477682113647</v>
       </c>
-      <c r="AH23" t="s">
-        <v>173</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300507</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.89</v>
@@ -2921,7 +3317,7 @@
         <v>103416.59</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2963,10 +3359,25 @@
         <v>0.04</v>
       </c>
       <c r="X24" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y24">
+        <v>-4.2</v>
+      </c>
+      <c r="Z24">
+        <v>10.14</v>
+      </c>
+      <c r="AA24">
+        <v>-0.88</v>
       </c>
       <c r="AC24" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2974,22 +3385,25 @@
       <c r="AG24">
         <v>3.256876468658447</v>
       </c>
-      <c r="AH24" t="s">
-        <v>173</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.65</v>
@@ -3007,7 +3421,7 @@
         <v>95353.45</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -3049,10 +3463,25 @@
         <v>-0.2</v>
       </c>
       <c r="X25" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y25">
+        <v>-2.26</v>
+      </c>
+      <c r="Z25">
+        <v>50</v>
+      </c>
+      <c r="AA25">
+        <v>1.11</v>
       </c>
       <c r="AC25" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3060,22 +3489,25 @@
       <c r="AG25">
         <v>-0.8598616123199463</v>
       </c>
-      <c r="AH25" t="s">
-        <v>173</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300604</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -3093,7 +3525,7 @@
         <v>1128973.31</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26">
         <v>21</v>
@@ -3135,10 +3567,25 @@
         <v>-0.72</v>
       </c>
       <c r="X26" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y26">
+        <v>-1.8</v>
+      </c>
+      <c r="Z26">
+        <v>99.5</v>
+      </c>
+      <c r="AA26">
+        <v>3.3</v>
       </c>
       <c r="AC26" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3146,22 +3593,25 @@
       <c r="AG26">
         <v>23.65329551696777</v>
       </c>
-      <c r="AH26" t="s">
-        <v>173</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300620</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-8.140000000000001</v>
@@ -3179,7 +3629,7 @@
         <v>323623.42</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K27">
         <v>11</v>
@@ -3221,10 +3671,25 @@
         <v>-0.52</v>
       </c>
       <c r="X27" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y27">
+        <v>1.51</v>
+      </c>
+      <c r="Z27">
+        <v>132.98</v>
+      </c>
+      <c r="AA27">
+        <v>6.71</v>
       </c>
       <c r="AC27" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3232,22 +3697,25 @@
       <c r="AG27">
         <v>-0.2651551365852356</v>
       </c>
-      <c r="AH27" t="s">
-        <v>173</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300660</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.38</v>
@@ -3265,7 +3733,7 @@
         <v>158467.74</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3307,10 +3775,25 @@
         <v>0.37</v>
       </c>
       <c r="X28" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y28">
+        <v>-3.26</v>
+      </c>
+      <c r="Z28">
+        <v>62</v>
+      </c>
+      <c r="AA28">
+        <v>-0.34</v>
       </c>
       <c r="AC28" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3318,22 +3801,25 @@
       <c r="AG28">
         <v>3.734589338302612</v>
       </c>
-      <c r="AH28" t="s">
-        <v>173</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300666</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -3351,7 +3837,7 @@
         <v>375959.88</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3393,10 +3879,25 @@
         <v>2.58</v>
       </c>
       <c r="X29" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y29">
+        <v>1.3</v>
+      </c>
+      <c r="Z29">
+        <v>103.23</v>
+      </c>
+      <c r="AA29">
+        <v>4.46</v>
       </c>
       <c r="AC29" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3404,22 +3905,25 @@
       <c r="AG29">
         <v>5.665988445281982</v>
       </c>
-      <c r="AH29" t="s">
-        <v>172</v>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300680</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2.41</v>
@@ -3437,7 +3941,7 @@
         <v>110902.17</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -3479,10 +3983,25 @@
         <v>1.12</v>
       </c>
       <c r="X30" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y30">
+        <v>-3.31</v>
+      </c>
+      <c r="Z30">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AA30">
+        <v>-0.23</v>
       </c>
       <c r="AC30" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3490,22 +4009,25 @@
       <c r="AG30">
         <v>3.585849046707153</v>
       </c>
-      <c r="AH30" t="s">
-        <v>173</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300827</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.51</v>
@@ -3523,7 +4045,7 @@
         <v>235247.44</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K31">
         <v>15</v>
@@ -3565,10 +4087,25 @@
         <v>0.88</v>
       </c>
       <c r="X31" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y31">
+        <v>-1.71</v>
+      </c>
+      <c r="Z31">
+        <v>34.65</v>
+      </c>
+      <c r="AA31">
+        <v>0.38</v>
       </c>
       <c r="AC31" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3576,22 +4113,25 @@
       <c r="AG31">
         <v>-0.7066109776496887</v>
       </c>
-      <c r="AH31" t="s">
-        <v>173</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300857</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>1.79</v>
@@ -3609,7 +4149,7 @@
         <v>292268.08</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K32">
         <v>24</v>
@@ -3651,10 +4191,25 @@
         <v>-0.06</v>
       </c>
       <c r="X32" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y32">
+        <v>-2.44</v>
+      </c>
+      <c r="Z32">
+        <v>173.88</v>
+      </c>
+      <c r="AA32">
+        <v>1.09</v>
       </c>
       <c r="AC32" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3662,22 +4217,25 @@
       <c r="AG32">
         <v>6.628286361694336</v>
       </c>
-      <c r="AH32" t="s">
-        <v>173</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300953</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>5.49</v>
@@ -3695,7 +4253,7 @@
         <v>135953.1</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K33">
         <v>21</v>
@@ -3737,10 +4295,25 @@
         <v>0.41</v>
       </c>
       <c r="X33" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y33">
+        <v>2.01</v>
+      </c>
+      <c r="Z33">
+        <v>177.06</v>
+      </c>
+      <c r="AA33">
+        <v>3.39</v>
       </c>
       <c r="AC33" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3748,22 +4321,25 @@
       <c r="AG33">
         <v>1.786418199539185</v>
       </c>
-      <c r="AH33" t="s">
-        <v>173</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300959</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-2.64</v>
@@ -3781,7 +4357,7 @@
         <v>90553.53999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -3823,10 +4399,25 @@
         <v>-0.3</v>
       </c>
       <c r="X34" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Y34">
+        <v>8.51</v>
+      </c>
+      <c r="Z34">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AA34">
+        <v>13.97</v>
       </c>
       <c r="AC34" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3834,22 +4425,25 @@
       <c r="AG34">
         <v>1.359209060668945</v>
       </c>
-      <c r="AH34" t="s">
-        <v>173</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300969</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-2.16</v>
@@ -3867,7 +4461,7 @@
         <v>59159.8</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3909,10 +4503,25 @@
         <v>0.14</v>
       </c>
       <c r="X35" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y35">
+        <v>0.99</v>
+      </c>
+      <c r="Z35">
+        <v>145</v>
+      </c>
+      <c r="AA35">
+        <v>6.62</v>
       </c>
       <c r="AC35" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3920,22 +4529,25 @@
       <c r="AG35">
         <v>6.006506443023682</v>
       </c>
-      <c r="AH35" t="s">
-        <v>173</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301008</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-5.74</v>
@@ -3953,7 +4565,7 @@
         <v>101973.36</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -3995,10 +4607,25 @@
         <v>0.32</v>
       </c>
       <c r="X36" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y36">
+        <v>-7.08</v>
+      </c>
+      <c r="Z36">
+        <v>49.34</v>
+      </c>
+      <c r="AA36">
+        <v>-0.22</v>
       </c>
       <c r="AC36" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4006,22 +4633,25 @@
       <c r="AG36">
         <v>3.06827712059021</v>
       </c>
-      <c r="AH36" t="s">
-        <v>173</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301013</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-4.52</v>
@@ -4039,7 +4669,7 @@
         <v>167712.83</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -4081,10 +4711,25 @@
         <v>-0.01</v>
       </c>
       <c r="X37" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y37">
+        <v>-5.59</v>
+      </c>
+      <c r="Z37">
+        <v>28.78</v>
+      </c>
+      <c r="AA37">
+        <v>1.77</v>
       </c>
       <c r="AC37" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4092,22 +4737,25 @@
       <c r="AG37">
         <v>1.212964057922363</v>
       </c>
-      <c r="AH37" t="s">
-        <v>173</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301052</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.94</v>
@@ -4125,7 +4773,7 @@
         <v>132659.76</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4167,10 +4815,25 @@
         <v>-0.82</v>
       </c>
       <c r="X38" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Y38">
+        <v>-1.66</v>
+      </c>
+      <c r="Z38">
+        <v>94.65000000000001</v>
+      </c>
+      <c r="AA38">
+        <v>1.31</v>
       </c>
       <c r="AC38" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4178,22 +4841,25 @@
       <c r="AG38">
         <v>21.67635536193848</v>
       </c>
-      <c r="AH38" t="s">
-        <v>173</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301086</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.21</v>
@@ -4211,7 +4877,7 @@
         <v>49417.95</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4253,10 +4919,25 @@
         <v>-0.36</v>
       </c>
       <c r="X39" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y39">
+        <v>7.75</v>
+      </c>
+      <c r="Z39">
+        <v>90.42</v>
+      </c>
+      <c r="AA39">
+        <v>14.5</v>
       </c>
       <c r="AC39" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4264,22 +4945,25 @@
       <c r="AG39">
         <v>127.3612442016602</v>
       </c>
-      <c r="AH39" t="s">
-        <v>173</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301095</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.9399999999999999</v>
@@ -4297,7 +4981,7 @@
         <v>129598.35</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4339,10 +5023,25 @@
         <v>-0.1</v>
       </c>
       <c r="X40" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y40">
+        <v>-0.79</v>
+      </c>
+      <c r="Z40">
+        <v>94.56</v>
+      </c>
+      <c r="AA40">
+        <v>0.47</v>
       </c>
       <c r="AC40" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4350,22 +5049,25 @@
       <c r="AG40">
         <v>2.179539442062378</v>
       </c>
-      <c r="AH40" t="s">
-        <v>173</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301307</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.45</v>
@@ -4383,7 +5085,7 @@
         <v>91222.53</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K41">
         <v>11</v>
@@ -4425,10 +5127,25 @@
         <v>0.87</v>
       </c>
       <c r="X41" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y41">
+        <v>-7.69</v>
+      </c>
+      <c r="Z41">
+        <v>39.33</v>
+      </c>
+      <c r="AA41">
+        <v>-1.5</v>
       </c>
       <c r="AC41" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4436,22 +5153,25 @@
       <c r="AG41">
         <v>-1.471446752548218</v>
       </c>
-      <c r="AH41" t="s">
-        <v>173</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301308</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>4.55</v>
@@ -4469,7 +5189,7 @@
         <v>381756.08</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4511,10 +5231,25 @@
         <v>0.17</v>
       </c>
       <c r="X42" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y42">
+        <v>-4.61</v>
+      </c>
+      <c r="Z42">
+        <v>146.88</v>
+      </c>
+      <c r="AA42">
+        <v>-2.64</v>
       </c>
       <c r="AC42" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4522,22 +5257,25 @@
       <c r="AG42">
         <v>6.749171257019043</v>
       </c>
-      <c r="AH42" t="s">
-        <v>173</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301319</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>4.03</v>
@@ -4555,7 +5293,7 @@
         <v>70197.8</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4597,10 +5335,25 @@
         <v>1.18</v>
       </c>
       <c r="X43" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>48.48</v>
+      </c>
+      <c r="AA43">
+        <v>4.26</v>
       </c>
       <c r="AC43" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4608,22 +5361,25 @@
       <c r="AG43">
         <v>1.752693176269531</v>
       </c>
-      <c r="AH43" t="s">
-        <v>173</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301396</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>10.46</v>
@@ -4641,7 +5397,7 @@
         <v>179287.44</v>
       </c>
       <c r="J44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4683,10 +5439,25 @@
         <v>3.22</v>
       </c>
       <c r="X44" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y44">
+        <v>2.24</v>
+      </c>
+      <c r="Z44">
+        <v>86.7</v>
+      </c>
+      <c r="AA44">
+        <v>4.55</v>
       </c>
       <c r="AC44" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4694,22 +5465,25 @@
       <c r="AG44">
         <v>5.399603366851807</v>
       </c>
-      <c r="AH44" t="s">
-        <v>173</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301421</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.47</v>
@@ -4727,7 +5501,7 @@
         <v>323092.89</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4769,10 +5543,25 @@
         <v>-3.35</v>
       </c>
       <c r="X45" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y45">
+        <v>-2.15</v>
+      </c>
+      <c r="Z45">
+        <v>134.55</v>
+      </c>
+      <c r="AA45">
+        <v>5.36</v>
       </c>
       <c r="AC45" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4780,22 +5569,25 @@
       <c r="AG45">
         <v>1.484926462173462</v>
       </c>
-      <c r="AH45" t="s">
-        <v>173</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301489</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.86</v>
@@ -4813,7 +5605,7 @@
         <v>81651.56</v>
       </c>
       <c r="J46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -4855,10 +5647,25 @@
         <v>0.46</v>
       </c>
       <c r="X46" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y46">
+        <v>-0.14</v>
+      </c>
+      <c r="Z46">
+        <v>291.91</v>
+      </c>
+      <c r="AA46">
+        <v>6.78</v>
       </c>
       <c r="AC46" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4866,22 +5673,25 @@
       <c r="AG46">
         <v>1.502056360244751</v>
       </c>
-      <c r="AH46" t="s">
-        <v>172</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301550</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.55</v>
@@ -4899,7 +5709,7 @@
         <v>80929.59</v>
       </c>
       <c r="J47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -4941,10 +5751,25 @@
         <v>0.42</v>
       </c>
       <c r="X47" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y47">
+        <v>-2.43</v>
+      </c>
+      <c r="Z47">
+        <v>137.78</v>
+      </c>
+      <c r="AA47">
+        <v>1.46</v>
       </c>
       <c r="AC47" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4952,22 +5777,25 @@
       <c r="AG47">
         <v>5.720036506652832</v>
       </c>
-      <c r="AH47" t="s">
-        <v>173</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688028</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>4.76</v>
@@ -4985,7 +5813,7 @@
         <v>57173.57</v>
       </c>
       <c r="J48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K48">
         <v>13</v>
@@ -5027,10 +5855,25 @@
         <v>0.15</v>
       </c>
       <c r="X48" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y48">
+        <v>6.27</v>
+      </c>
+      <c r="Z48">
+        <v>54.9</v>
+      </c>
+      <c r="AA48">
+        <v>6.95</v>
       </c>
       <c r="AC48" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5038,22 +5881,25 @@
       <c r="AG48">
         <v>3.534658193588257</v>
       </c>
-      <c r="AH48" t="s">
-        <v>173</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688041</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.05</v>
@@ -5071,7 +5917,7 @@
         <v>1412015.51</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5113,10 +5959,25 @@
         <v>0.14</v>
       </c>
       <c r="X49" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y49">
+        <v>3.09</v>
+      </c>
+      <c r="Z49">
+        <v>277.98</v>
+      </c>
+      <c r="AA49">
+        <v>6.96</v>
       </c>
       <c r="AC49" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5124,22 +5985,25 @@
       <c r="AG49">
         <v>-15.77697467803955</v>
       </c>
-      <c r="AH49" t="s">
-        <v>173</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688123</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>6.92</v>
@@ -5157,7 +6021,7 @@
         <v>270542.95</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5199,10 +6063,25 @@
         <v>0.41</v>
       </c>
       <c r="X50" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y50">
+        <v>2.84</v>
+      </c>
+      <c r="Z50">
+        <v>131.96</v>
+      </c>
+      <c r="AA50">
+        <v>2.84</v>
       </c>
       <c r="AC50" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5210,22 +6089,25 @@
       <c r="AG50">
         <v>-4.792562484741211</v>
       </c>
-      <c r="AH50" t="s">
-        <v>172</v>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688135</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-0.05</v>
@@ -5243,7 +6125,7 @@
         <v>127090.25</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K51">
         <v>17</v>
@@ -5285,10 +6167,25 @@
         <v>-0.79</v>
       </c>
       <c r="X51" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y51">
+        <v>-6.79</v>
+      </c>
+      <c r="Z51">
+        <v>37.68</v>
+      </c>
+      <c r="AA51">
+        <v>-1.26</v>
       </c>
       <c r="AC51" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5296,22 +6193,25 @@
       <c r="AG51">
         <v>-0.01904533244669437</v>
       </c>
-      <c r="AH51" t="s">
-        <v>173</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688141</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>12.78</v>
@@ -5329,7 +6229,7 @@
         <v>202134.71</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K52">
         <v>16</v>
@@ -5371,10 +6271,25 @@
         <v>0.02</v>
       </c>
       <c r="X52" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y52">
+        <v>1.4</v>
+      </c>
+      <c r="Z52">
+        <v>59.09</v>
+      </c>
+      <c r="AA52">
+        <v>1.93</v>
       </c>
       <c r="AC52" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5382,22 +6297,25 @@
       <c r="AG52">
         <v>6.472105503082275</v>
       </c>
-      <c r="AH52" t="s">
-        <v>173</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688147</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>15.54</v>
@@ -5415,7 +6333,7 @@
         <v>165455.32</v>
       </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K53">
         <v>28</v>
@@ -5457,10 +6375,25 @@
         <v>1.09</v>
       </c>
       <c r="X53" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y53">
+        <v>-5.33</v>
+      </c>
+      <c r="Z53">
+        <v>57.03</v>
+      </c>
+      <c r="AA53">
+        <v>-0.64</v>
       </c>
       <c r="AC53" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5468,22 +6401,25 @@
       <c r="AG53">
         <v>-9.194570541381836</v>
       </c>
-      <c r="AH53" t="s">
-        <v>173</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688195</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-4.47</v>
@@ -5501,7 +6437,7 @@
         <v>131614.54</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K54">
         <v>28</v>
@@ -5543,10 +6479,25 @@
         <v>-0.24</v>
       </c>
       <c r="X54" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y54">
+        <v>-6.08</v>
+      </c>
+      <c r="Z54">
+        <v>135.19</v>
+      </c>
+      <c r="AA54">
+        <v>-1.72</v>
       </c>
       <c r="AC54" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5554,22 +6505,25 @@
       <c r="AG54">
         <v>6.56272029876709</v>
       </c>
-      <c r="AH54" t="s">
-        <v>173</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688210</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>11.23</v>
@@ -5587,7 +6541,7 @@
         <v>59863.09</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K55">
         <v>7</v>
@@ -5628,8 +6582,23 @@
       <c r="W55">
         <v>-0.02</v>
       </c>
+      <c r="Y55">
+        <v>-3.92</v>
+      </c>
+      <c r="Z55">
+        <v>62.89</v>
+      </c>
+      <c r="AA55">
+        <v>0.18</v>
+      </c>
       <c r="AC55" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5637,22 +6606,25 @@
       <c r="AG55">
         <v>11.45230770111084</v>
       </c>
-      <c r="AH55" t="s">
-        <v>173</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688228</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>2.27</v>
@@ -5670,7 +6642,7 @@
         <v>68905.81</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56">
         <v>11</v>
@@ -5712,10 +6684,25 @@
         <v>0.36</v>
       </c>
       <c r="X56" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y56">
+        <v>-5.71</v>
+      </c>
+      <c r="Z56">
+        <v>193.93</v>
+      </c>
+      <c r="AA56">
+        <v>1.03</v>
       </c>
       <c r="AC56" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5723,22 +6710,25 @@
       <c r="AG56">
         <v>4.299388885498047</v>
       </c>
-      <c r="AH56" t="s">
-        <v>172</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688330</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-7.73</v>
@@ -5756,7 +6746,7 @@
         <v>50799.07</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5798,10 +6788,25 @@
         <v>-0.19</v>
       </c>
       <c r="X57" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Y57">
+        <v>2.21</v>
+      </c>
+      <c r="Z57">
+        <v>43.57</v>
+      </c>
+      <c r="AA57">
+        <v>4.53</v>
       </c>
       <c r="AC57" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5809,22 +6814,25 @@
       <c r="AG57">
         <v>-0.1978768110275269</v>
       </c>
-      <c r="AH57" t="s">
-        <v>173</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688332</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.21</v>
@@ -5842,7 +6850,7 @@
         <v>165283.39</v>
       </c>
       <c r="J58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5884,10 +6892,25 @@
         <v>1.44</v>
       </c>
       <c r="X58" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y58">
+        <v>-4.82</v>
+      </c>
+      <c r="Z58">
+        <v>156.3</v>
+      </c>
+      <c r="AA58">
+        <v>3.3</v>
       </c>
       <c r="AC58" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5895,22 +6918,25 @@
       <c r="AG58">
         <v>1.229970693588257</v>
       </c>
-      <c r="AH58" t="s">
-        <v>173</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688347</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>4.25</v>
@@ -5928,7 +6954,7 @@
         <v>261097.78</v>
       </c>
       <c r="J59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K59">
         <v>10</v>
@@ -5970,10 +6996,25 @@
         <v>0.27</v>
       </c>
       <c r="X59" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y59">
+        <v>5.86</v>
+      </c>
+      <c r="Z59">
+        <v>93</v>
+      </c>
+      <c r="AA59">
+        <v>8.92</v>
       </c>
       <c r="AC59" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5981,22 +7022,25 @@
       <c r="AG59">
         <v>5.528377056121826</v>
       </c>
-      <c r="AH59" t="s">
-        <v>173</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688373</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-0.41</v>
@@ -6014,7 +7058,7 @@
         <v>87463.88</v>
       </c>
       <c r="J60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -6056,10 +7100,25 @@
         <v>-1.39</v>
       </c>
       <c r="X60" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Y60">
+        <v>-10.96</v>
+      </c>
+      <c r="Z60">
+        <v>9.67</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
       </c>
       <c r="AC60" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6067,22 +7126,25 @@
       <c r="AG60">
         <v>-0.6590851545333862</v>
       </c>
-      <c r="AH60" t="s">
-        <v>173</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688400</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-5.28</v>
@@ -6100,7 +7162,7 @@
         <v>130954.59</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K61">
         <v>10</v>
@@ -6142,10 +7204,25 @@
         <v>-0.36</v>
       </c>
       <c r="X61" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y61">
+        <v>-0.14</v>
+      </c>
+      <c r="Z61">
+        <v>50.75</v>
+      </c>
+      <c r="AA61">
+        <v>2.53</v>
       </c>
       <c r="AC61" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6153,22 +7230,25 @@
       <c r="AG61">
         <v>0.9591779708862305</v>
       </c>
-      <c r="AH61" t="s">
-        <v>173</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688403</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>15.84</v>
@@ -6186,7 +7266,7 @@
         <v>147772.89</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6228,10 +7308,25 @@
         <v>0.68</v>
       </c>
       <c r="X62" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y62">
+        <v>-0.05</v>
+      </c>
+      <c r="Z62">
+        <v>18.55</v>
+      </c>
+      <c r="AA62">
+        <v>1.87</v>
       </c>
       <c r="AC62" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6239,22 +7334,25 @@
       <c r="AG62">
         <v>8.115152359008789</v>
       </c>
-      <c r="AH62" t="s">
-        <v>173</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688411</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.3</v>
@@ -6272,7 +7370,7 @@
         <v>127003.32</v>
       </c>
       <c r="J63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K63">
         <v>17</v>
@@ -6314,10 +7412,25 @@
         <v>0.05</v>
       </c>
       <c r="X63" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y63">
+        <v>4.1</v>
+      </c>
+      <c r="Z63">
+        <v>288.87</v>
+      </c>
+      <c r="AA63">
+        <v>7.39</v>
       </c>
       <c r="AC63" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6325,22 +7438,25 @@
       <c r="AG63">
         <v>1.645869731903076</v>
       </c>
-      <c r="AH63" t="s">
-        <v>173</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688502</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>3.6</v>
@@ -6358,7 +7474,7 @@
         <v>122835.76</v>
       </c>
       <c r="J64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K64">
         <v>5</v>
@@ -6400,10 +7516,25 @@
         <v>0.72</v>
       </c>
       <c r="X64" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y64">
+        <v>-4.86</v>
+      </c>
+      <c r="Z64">
+        <v>466</v>
+      </c>
+      <c r="AA64">
+        <v>-0.48</v>
       </c>
       <c r="AC64" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6411,22 +7542,25 @@
       <c r="AG64">
         <v>3.334633111953735</v>
       </c>
-      <c r="AH64" t="s">
-        <v>173</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688503</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>10.22</v>
@@ -6444,7 +7578,7 @@
         <v>238662.76</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6486,10 +7620,25 @@
         <v>0.78</v>
       </c>
       <c r="X65" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y65">
+        <v>8.94</v>
+      </c>
+      <c r="Z65">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>13.14</v>
       </c>
       <c r="AC65" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6497,22 +7646,25 @@
       <c r="AG65">
         <v>11.47088432312012</v>
       </c>
-      <c r="AH65" t="s">
-        <v>173</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688521</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-3.35</v>
@@ -6530,7 +7682,7 @@
         <v>525744.59</v>
       </c>
       <c r="J66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K66">
         <v>16</v>
@@ -6572,10 +7724,25 @@
         <v>-0.06</v>
       </c>
       <c r="X66" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y66">
+        <v>1.7</v>
+      </c>
+      <c r="Z66">
+        <v>212</v>
+      </c>
+      <c r="AA66">
+        <v>6.48</v>
       </c>
       <c r="AC66" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6583,22 +7750,25 @@
       <c r="AG66">
         <v>-1.4309903383255</v>
       </c>
-      <c r="AH66" t="s">
-        <v>173</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688525</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>6.51</v>
@@ -6616,7 +7786,7 @@
         <v>408978.56</v>
       </c>
       <c r="J67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6658,10 +7828,25 @@
         <v>1.59</v>
       </c>
       <c r="X67" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y67">
+        <v>-2.9</v>
+      </c>
+      <c r="Z67">
+        <v>92.13</v>
+      </c>
+      <c r="AA67">
+        <v>-1.15</v>
       </c>
       <c r="AC67" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6669,22 +7854,25 @@
       <c r="AG67">
         <v>-8.238726615905762</v>
       </c>
-      <c r="AH67" t="s">
-        <v>173</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688559</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>13.73</v>
@@ -6702,7 +7890,7 @@
         <v>131368.23</v>
       </c>
       <c r="J68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K68">
         <v>14</v>
@@ -6744,10 +7932,25 @@
         <v>0.64</v>
       </c>
       <c r="X68" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y68">
+        <v>-4.63</v>
+      </c>
+      <c r="Z68">
+        <v>45.99</v>
+      </c>
+      <c r="AA68">
+        <v>0.37</v>
       </c>
       <c r="AC68" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6755,22 +7958,25 @@
       <c r="AG68">
         <v>0.8688594698905945</v>
       </c>
-      <c r="AH68" t="s">
-        <v>173</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688627</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>1.13</v>
@@ -6788,7 +7994,7 @@
         <v>140203.78</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K69">
         <v>9</v>
@@ -6830,10 +8036,25 @@
         <v>0.03</v>
       </c>
       <c r="X69" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y69">
+        <v>-3.31</v>
+      </c>
+      <c r="Z69">
+        <v>198.86</v>
+      </c>
+      <c r="AA69">
+        <v>9.869999999999999</v>
       </c>
       <c r="AC69" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6841,22 +8062,25 @@
       <c r="AG69">
         <v>7.195236682891846</v>
       </c>
-      <c r="AH69" t="s">
-        <v>173</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688629</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-0.78</v>
@@ -6874,7 +8098,7 @@
         <v>175533.52</v>
       </c>
       <c r="J70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -6916,10 +8140,25 @@
         <v>-0.77</v>
       </c>
       <c r="X70" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y70">
+        <v>2.81</v>
+      </c>
+      <c r="Z70">
+        <v>109.4</v>
+      </c>
+      <c r="AA70">
+        <v>6.22</v>
       </c>
       <c r="AC70" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6927,22 +8166,25 @@
       <c r="AG70">
         <v>0.8927416801452637</v>
       </c>
-      <c r="AH70" t="s">
-        <v>173</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688630</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>4.02</v>
@@ -6960,7 +8202,7 @@
         <v>184233.87</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -7002,10 +8244,25 @@
         <v>0.33</v>
       </c>
       <c r="X71" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y71">
+        <v>-1.46</v>
+      </c>
+      <c r="Z71">
+        <v>164</v>
+      </c>
+      <c r="AA71">
+        <v>0.99</v>
       </c>
       <c r="AC71" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -7013,22 +8270,25 @@
       <c r="AG71">
         <v>35.18785858154297</v>
       </c>
-      <c r="AH71" t="s">
-        <v>173</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688652</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>12.19</v>
@@ -7046,7 +8306,7 @@
         <v>147716.95</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -7088,10 +8348,25 @@
         <v>-0.3</v>
       </c>
       <c r="X72" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y72">
+        <v>-2.57</v>
+      </c>
+      <c r="Z72">
+        <v>99.95</v>
+      </c>
+      <c r="AA72">
+        <v>2.29</v>
       </c>
       <c r="AC72" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7099,22 +8374,25 @@
       <c r="AG72">
         <v>-17.38980484008789</v>
       </c>
-      <c r="AH72" t="s">
-        <v>173</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688678</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-3.26</v>
@@ -7132,7 +8410,7 @@
         <v>58732.33</v>
       </c>
       <c r="J73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -7174,10 +8452,25 @@
         <v>-0.18</v>
       </c>
       <c r="X73" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y73">
+        <v>-2.62</v>
+      </c>
+      <c r="Z73">
+        <v>36.7</v>
+      </c>
+      <c r="AA73">
+        <v>2.11</v>
       </c>
       <c r="AC73" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7185,22 +8478,25 @@
       <c r="AG73">
         <v>-7.216761112213135</v>
       </c>
-      <c r="AH73" t="s">
-        <v>173</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688766</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>2.35</v>
@@ -7218,7 +8514,7 @@
         <v>174826.59</v>
       </c>
       <c r="J74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7260,10 +8556,25 @@
         <v>1.17</v>
       </c>
       <c r="X74" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y74">
+        <v>-3.9</v>
+      </c>
+      <c r="Z74">
+        <v>107.95</v>
+      </c>
+      <c r="AA74">
+        <v>-0.96</v>
       </c>
       <c r="AC74" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7271,22 +8582,25 @@
       <c r="AG74">
         <v>2.312934637069702</v>
       </c>
-      <c r="AH74" t="s">
-        <v>173</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688981</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>5.03</v>
@@ -7304,7 +8618,7 @@
         <v>1949752.32</v>
       </c>
       <c r="J75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -7346,10 +8660,25 @@
         <v>0.42</v>
       </c>
       <c r="X75" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y75">
+        <v>-0.64</v>
+      </c>
+      <c r="Z75">
+        <v>137.8</v>
+      </c>
+      <c r="AA75">
+        <v>2.09</v>
       </c>
       <c r="AC75" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7357,8 +8686,11 @@
       <c r="AG75">
         <v>1.473226308822632</v>
       </c>
-      <c r="AH75" t="s">
-        <v>173</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
